--- a/estudiantes.xlsx
+++ b/estudiantes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maurisq\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\cruds_c#\bin\Debug\net7.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB807F9-E2EA-40C2-AD2B-658138543A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920B844E-5749-4EB9-8E32-364BD108BC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="630" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estudiantes" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
-  <si>
-    <t>c02</t>
-  </si>
-  <si>
-    <t>dayron</t>
-  </si>
-  <si>
-    <t>d@uo.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>8888-8888</t>
   </si>
@@ -40,62 +31,95 @@
     <t>CA</t>
   </si>
   <si>
-    <t>c03</t>
-  </si>
-  <si>
-    <t>alonso</t>
-  </si>
-  <si>
-    <t>a@io.com</t>
-  </si>
-  <si>
-    <t>c04</t>
-  </si>
-  <si>
-    <t>alan</t>
-  </si>
-  <si>
-    <t>alan@io.com</t>
-  </si>
-  <si>
     <t>8555-5558</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>erickson</t>
-  </si>
-  <si>
     <t>periferia</t>
   </si>
   <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>ant@estudiantec.cr</t>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>kevin22@gmail.com</t>
+  </si>
+  <si>
+    <t>san carlos</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Mateo</t>
+  </si>
+  <si>
+    <t>mateo@io.com</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>rafa@io.com</t>
+  </si>
+  <si>
+    <t>8232-3458</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Oliver@io.com</t>
+  </si>
+  <si>
+    <t>8994-3218</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>mike@io.com</t>
+  </si>
+  <si>
+    <t>8389-3109</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>Keylor</t>
+  </si>
+  <si>
+    <t>keylor@hulu.com</t>
+  </si>
+  <si>
+    <t>8732-1309</t>
+  </si>
+  <si>
+    <t>alajuela</t>
+  </si>
+  <si>
+    <t>AL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,12 +141,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -441,188 +464,193 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>202401</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
       <c r="F1">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I1">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>202403</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>202404</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>202405</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
       <c r="I4">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>202309</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>2024</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>987</v>
+        <v>202410</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
       <c r="I6">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{3BA0389C-8CD3-4C7F-B355-1C33AB564052}"/>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{D6F84FA2-57B5-4A77-9DDF-AFA49AD3BBE3}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{D408B2DF-A9D0-40E8-8ED1-385EB4E3904A}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{88C651D2-7397-4C91-B1CE-BFFF107A0DF9}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{CCB69B9C-AD44-43EF-B641-E2FA45905E96}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{84AB3E9B-5DDF-4DA1-95AF-7E1436293636}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{BCD57CC6-FCE6-45FD-84AF-9B78E0A70C7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
